--- a/manifests - Copy/Simulation_Manifest.xlsx
+++ b/manifests - Copy/Simulation_Manifest.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I169"/>
@@ -716,6 +716,266 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6_e276_4321_1_4_UnitedStoneInternational_Cleveland_OH_.jpeg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>s7_e280_4321_2_7_UnitedStoneInternational_Cleveland_OH_.jpeg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>s8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>s8_e275_4321_1_3_UnitedStoneInternational_Cleveland_OH_.jpeg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1247</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>s9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>s9_e279_4321_1_7_UnitedStoneInternational_Cleveland_OH_.jpeg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>s10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>s10_e277_4321_1_5_UnitedStoneInternational_Cleveland_OH_.jpeg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
